--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H2">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I2">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J2">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>8.730206645980445</v>
+        <v>0.5223516029946667</v>
       </c>
       <c r="R2">
-        <v>78.57185981382401</v>
+        <v>4.701164426952</v>
       </c>
       <c r="S2">
-        <v>0.0001683119922585698</v>
+        <v>3.58227966424518E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001683119922585698</v>
+        <v>3.58227966424518E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H3">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I3">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J3">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>171.9384996853795</v>
+        <v>12.66583504982178</v>
       </c>
       <c r="R3">
-        <v>1547.446497168416</v>
+        <v>113.992515448396</v>
       </c>
       <c r="S3">
-        <v>0.00331484838807566</v>
+        <v>0.0008686211178359045</v>
       </c>
       <c r="T3">
-        <v>0.003314848388075661</v>
+        <v>0.0008686211178359046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H4">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I4">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J4">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>62.49260888793244</v>
+        <v>5.464652537976889</v>
       </c>
       <c r="R4">
-        <v>562.433479991392</v>
+        <v>49.181872841792</v>
       </c>
       <c r="S4">
-        <v>0.001204811745001055</v>
+        <v>0.0003747650729265647</v>
       </c>
       <c r="T4">
-        <v>0.001204811745001056</v>
+        <v>0.0003747650729265647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.8039883333333334</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H5">
-        <v>2.411965</v>
+        <v>0.857924</v>
       </c>
       <c r="I5">
-        <v>0.0009708852428447965</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J5">
-        <v>0.0009708852428447966</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>1.808037371587778</v>
+        <v>0.03345493702977777</v>
       </c>
       <c r="R5">
-        <v>16.27233634429</v>
+        <v>0.301094433268</v>
       </c>
       <c r="S5">
-        <v>3.485763675823174E-05</v>
+        <v>2.294334695314405E-06</v>
       </c>
       <c r="T5">
-        <v>3.485763675823173E-05</v>
+        <v>2.294334695314406E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H6">
         <v>2.411965</v>
       </c>
       <c r="I6">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J6">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>35.60869125463722</v>
+        <v>1.468537754063333</v>
       </c>
       <c r="R6">
-        <v>320.478221291735</v>
+        <v>13.21683978657</v>
       </c>
       <c r="S6">
-        <v>0.0006865094962612096</v>
+        <v>0.0001007121046895893</v>
       </c>
       <c r="T6">
-        <v>0.0006865094962612097</v>
+        <v>0.0001007121046895894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
         <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J7">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>12.94230215838278</v>
+        <v>35.60869125463722</v>
       </c>
       <c r="R7">
-        <v>116.480719425445</v>
+        <v>320.478221291735</v>
       </c>
       <c r="S7">
-        <v>0.000249518109825355</v>
+        <v>0.002442038845493398</v>
       </c>
       <c r="T7">
-        <v>0.000249518109825355</v>
+        <v>0.002442038845493398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>568.7907310000001</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H8">
-        <v>1706.372193</v>
+        <v>2.411965</v>
       </c>
       <c r="I8">
-        <v>0.6868638562269406</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J8">
-        <v>0.6868638562269407</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>1279.116693145296</v>
+        <v>15.36330800719111</v>
       </c>
       <c r="R8">
-        <v>11512.05023830766</v>
+        <v>138.26977206472</v>
       </c>
       <c r="S8">
-        <v>0.0246604333304759</v>
+        <v>0.001053613419278773</v>
       </c>
       <c r="T8">
-        <v>0.02466043333047589</v>
+        <v>0.001053613419278773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>568.7907310000001</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H9">
-        <v>1706.372193</v>
+        <v>2.411965</v>
       </c>
       <c r="I9">
-        <v>0.6868638562269406</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J9">
-        <v>0.6868638562269407</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>25191.77541383695</v>
+        <v>0.09405511116722221</v>
       </c>
       <c r="R9">
-        <v>226725.9787245325</v>
+        <v>0.8464960005049998</v>
       </c>
       <c r="S9">
-        <v>0.4856789856613034</v>
+        <v>6.450285786834276E-06</v>
       </c>
       <c r="T9">
-        <v>0.4856789856613034</v>
+        <v>6.450285786834277E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H10">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I10">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J10">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>9156.179511920054</v>
+        <v>100.215148183346</v>
       </c>
       <c r="R10">
-        <v>82405.6156072805</v>
+        <v>901.936333650114</v>
       </c>
       <c r="S10">
-        <v>0.1765244372351613</v>
+        <v>0.006872740225709293</v>
       </c>
       <c r="T10">
-        <v>0.1765244372351613</v>
+        <v>0.006872740225709294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3533043333333333</v>
+        <v>54.865331</v>
       </c>
       <c r="H11">
-        <v>1.059913</v>
+        <v>164.595993</v>
       </c>
       <c r="I11">
-        <v>0.0004266454490008588</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J11">
-        <v>0.0004266454490008589</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>0.7945232682197777</v>
+        <v>2429.988783621417</v>
       </c>
       <c r="R11">
-        <v>7.150709413977999</v>
+        <v>21869.89905259275</v>
       </c>
       <c r="S11">
-        <v>1.531782689604852E-05</v>
+        <v>0.1666482758740526</v>
       </c>
       <c r="T11">
-        <v>1.531782689604851E-05</v>
+        <v>0.1666482758740526</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3533043333333333</v>
+        <v>54.865331</v>
       </c>
       <c r="H12">
-        <v>1.059913</v>
+        <v>164.595993</v>
       </c>
       <c r="I12">
-        <v>0.0004266454490008588</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J12">
-        <v>0.0004266454490008589</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>15.64787000382522</v>
+        <v>1048.414441009083</v>
       </c>
       <c r="R12">
-        <v>140.830830034427</v>
+        <v>9435.729969081744</v>
       </c>
       <c r="S12">
-        <v>0.0003016794769868996</v>
+        <v>0.07190010924052169</v>
       </c>
       <c r="T12">
-        <v>0.0003016794769868996</v>
+        <v>0.07190010924052169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>54.865331</v>
+      </c>
+      <c r="H13">
+        <v>164.595993</v>
+      </c>
+      <c r="I13">
+        <v>0.2458613022061244</v>
+      </c>
+      <c r="J13">
+        <v>0.2458613022061244</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3533043333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.059913</v>
-      </c>
-      <c r="I13">
-        <v>0.0004266454490008588</v>
-      </c>
-      <c r="J13">
-        <v>0.0004266454490008589</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>5.687360433338776</v>
+        <v>6.418457323922333</v>
       </c>
       <c r="R13">
-        <v>51.18624390004899</v>
+        <v>57.76611591530099</v>
       </c>
       <c r="S13">
-        <v>0.0001096481451179107</v>
+        <v>0.0004401768658408285</v>
       </c>
       <c r="T13">
-        <v>0.0001096481451179107</v>
+        <v>0.0004401768658408285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>254.2680866666667</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H14">
-        <v>762.8042600000001</v>
+        <v>0.149161</v>
       </c>
       <c r="I14">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J14">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>571.8070574350623</v>
+        <v>0.09081747037533333</v>
       </c>
       <c r="R14">
-        <v>5146.263516915561</v>
+        <v>0.8173572333779999</v>
       </c>
       <c r="S14">
-        <v>0.01102402141519954</v>
+        <v>6.22824885419309E-06</v>
       </c>
       <c r="T14">
-        <v>0.01102402141519954</v>
+        <v>6.228248854193091E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>254.2680866666667</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H15">
-        <v>762.8042600000001</v>
+        <v>0.149161</v>
       </c>
       <c r="I15">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J15">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>11261.54872979584</v>
+        <v>2.202116529979889</v>
       </c>
       <c r="R15">
-        <v>101353.9385681625</v>
+        <v>19.819048769819</v>
       </c>
       <c r="S15">
-        <v>0.2171144142964367</v>
+        <v>0.000151020830000701</v>
       </c>
       <c r="T15">
-        <v>0.2171144142964367</v>
+        <v>0.000151020830000701</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>254.2680866666667</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H16">
-        <v>762.8042600000001</v>
+        <v>0.149161</v>
       </c>
       <c r="I16">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J16">
-        <v>0.3070506409558784</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>4093.112139115442</v>
+        <v>0.9500993528764444</v>
       </c>
       <c r="R16">
-        <v>36838.00925203899</v>
+        <v>8.550894175887999</v>
       </c>
       <c r="S16">
-        <v>0.07891220524424221</v>
+        <v>6.515767485558081E-05</v>
       </c>
       <c r="T16">
-        <v>0.07891220524424221</v>
+        <v>6.515767485558081E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04972033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.149161</v>
+      </c>
+      <c r="I17">
+        <v>0.0002228056529806757</v>
+      </c>
+      <c r="J17">
+        <v>0.0002228056529806757</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.005816566341888888</v>
+      </c>
+      <c r="R17">
+        <v>0.05234909707699999</v>
+      </c>
+      <c r="S17">
+        <v>3.988992702008476E-07</v>
+      </c>
+      <c r="T17">
+        <v>3.988992702008477E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>167.1506043333333</v>
+      </c>
+      <c r="H18">
+        <v>501.451813</v>
+      </c>
+      <c r="I18">
+        <v>0.7490315741635462</v>
+      </c>
+      <c r="J18">
+        <v>0.749031574163546</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>305.3116107547194</v>
+      </c>
+      <c r="R18">
+        <v>2747.804496792474</v>
+      </c>
+      <c r="S18">
+        <v>0.02093822567393822</v>
+      </c>
+      <c r="T18">
+        <v>0.02093822567393822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>167.1506043333333</v>
+      </c>
+      <c r="H19">
+        <v>501.451813</v>
+      </c>
+      <c r="I19">
+        <v>0.7490315741635462</v>
+      </c>
+      <c r="J19">
+        <v>0.749031574163546</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>7403.110239242726</v>
+      </c>
+      <c r="R19">
+        <v>66627.99215318453</v>
+      </c>
+      <c r="S19">
+        <v>0.5077042189621703</v>
+      </c>
+      <c r="T19">
+        <v>0.5077042189621703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>167.1506043333333</v>
+      </c>
+      <c r="H20">
+        <v>501.451813</v>
+      </c>
+      <c r="I20">
+        <v>0.7490315741635462</v>
+      </c>
+      <c r="J20">
+        <v>0.749031574163546</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>3194.059057193368</v>
+      </c>
+      <c r="R20">
+        <v>28746.53151474031</v>
+      </c>
+      <c r="S20">
+        <v>0.2190481036410021</v>
+      </c>
+      <c r="T20">
+        <v>0.2190481036410021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>167.1506043333333</v>
+      </c>
+      <c r="H21">
+        <v>501.451813</v>
+      </c>
+      <c r="I21">
+        <v>0.7490315741635462</v>
+      </c>
+      <c r="J21">
+        <v>0.749031574163546</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>19.55422488167122</v>
+      </c>
+      <c r="R21">
+        <v>175.988023935041</v>
+      </c>
+      <c r="S21">
+        <v>0.001341025886435408</v>
+      </c>
+      <c r="T21">
+        <v>0.001341025886435408</v>
       </c>
     </row>
   </sheetData>
